--- a/players_stats/Joe Johnson.xlsx
+++ b/players_stats/Joe Johnson.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ18"/>
+  <dimension ref="A1:AJ25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -552,15 +552,15 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1970-71</t>
+          <t>2001-02</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>TOT</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -570,65 +570,83 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>67</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
+        <v>77</v>
+      </c>
+      <c r="I2" t="n">
+        <v>60</v>
+      </c>
       <c r="J2" t="n">
-        <v>2310</v>
+        <v>1916</v>
       </c>
       <c r="K2" t="n">
-        <v>435</v>
+        <v>251</v>
       </c>
       <c r="L2" t="n">
-        <v>1032</v>
+        <v>584</v>
       </c>
       <c r="M2" t="n">
-        <v>0.422</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
+        <v>0.43</v>
+      </c>
+      <c r="N2" t="n">
+        <v>38</v>
+      </c>
+      <c r="O2" t="n">
+        <v>130</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.292</v>
+      </c>
       <c r="Q2" t="n">
-        <v>435</v>
+        <v>213</v>
       </c>
       <c r="R2" t="n">
-        <v>1032</v>
+        <v>454</v>
       </c>
       <c r="S2" t="n">
-        <v>0.422</v>
+        <v>0.469</v>
       </c>
       <c r="T2" t="n">
-        <v>0.422</v>
+        <v>0.462</v>
       </c>
       <c r="U2" t="n">
-        <v>240</v>
+        <v>41</v>
       </c>
       <c r="V2" t="n">
-        <v>298</v>
+        <v>53</v>
       </c>
       <c r="W2" t="n">
-        <v>0.805</v>
-      </c>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
+        <v>0.774</v>
+      </c>
+      <c r="X2" t="n">
+        <v>75</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>182</v>
+      </c>
       <c r="Z2" t="n">
-        <v>453</v>
+        <v>257</v>
       </c>
       <c r="AA2" t="n">
-        <v>323</v>
-      </c>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
+        <v>179</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>59</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>71</v>
+      </c>
       <c r="AE2" t="n">
-        <v>251</v>
+        <v>114</v>
       </c>
       <c r="AF2" t="n">
-        <v>1110</v>
+        <v>581</v>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
@@ -637,7 +655,7 @@
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 90 </t>
+          <t xml:space="preserve"> 108 </t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
@@ -646,7 +664,7 @@
         </is>
       </c>
       <c r="AJ2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -658,83 +676,101 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1971-72</t>
+          <t>2001-02</t>
         </is>
       </c>
       <c r="D3" t="n">
+        <v>20</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>48</v>
+      </c>
+      <c r="I3" t="n">
+        <v>33</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1003</v>
+      </c>
+      <c r="K3" t="n">
+        <v>130</v>
+      </c>
+      <c r="L3" t="n">
+        <v>296</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.439</v>
+      </c>
+      <c r="N3" t="n">
         <v>24</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>CLE</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NBA</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>82</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="n">
-        <v>3041</v>
-      </c>
-      <c r="K3" t="n">
-        <v>557</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1286</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.433</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
+      <c r="O3" t="n">
+        <v>88</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.273</v>
+      </c>
       <c r="Q3" t="n">
-        <v>557</v>
+        <v>106</v>
       </c>
       <c r="R3" t="n">
-        <v>1286</v>
+        <v>208</v>
       </c>
       <c r="S3" t="n">
-        <v>0.433</v>
+        <v>0.51</v>
       </c>
       <c r="T3" t="n">
-        <v>0.433</v>
+        <v>0.48</v>
       </c>
       <c r="U3" t="n">
-        <v>277</v>
+        <v>20</v>
       </c>
       <c r="V3" t="n">
-        <v>353</v>
+        <v>26</v>
       </c>
       <c r="W3" t="n">
-        <v>0.785</v>
-      </c>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
+        <v>0.769</v>
+      </c>
+      <c r="X3" t="n">
+        <v>40</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>99</v>
+      </c>
       <c r="Z3" t="n">
-        <v>631</v>
+        <v>139</v>
       </c>
       <c r="AA3" t="n">
-        <v>415</v>
-      </c>
-      <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="inlineStr"/>
+        <v>74</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>33</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>28</v>
+      </c>
       <c r="AE3" t="n">
-        <v>268</v>
+        <v>59</v>
       </c>
       <c r="AF3" t="n">
-        <v>1391</v>
+        <v>304</v>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
@@ -743,7 +779,7 @@
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 90 </t>
+          <t xml:space="preserve"> 108 </t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
@@ -752,7 +788,7 @@
         </is>
       </c>
       <c r="AJ3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -764,15 +800,15 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1972-73</t>
+          <t>2001-02</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -782,65 +818,83 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>82</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>29</v>
+      </c>
+      <c r="I4" t="n">
+        <v>27</v>
+      </c>
       <c r="J4" t="n">
-        <v>2815</v>
+        <v>913</v>
       </c>
       <c r="K4" t="n">
-        <v>492</v>
+        <v>121</v>
       </c>
       <c r="L4" t="n">
-        <v>1143</v>
+        <v>288</v>
       </c>
       <c r="M4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
+        <v>0.42</v>
+      </c>
+      <c r="N4" t="n">
+        <v>14</v>
+      </c>
+      <c r="O4" t="n">
+        <v>42</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.333</v>
+      </c>
       <c r="Q4" t="n">
-        <v>492</v>
+        <v>107</v>
       </c>
       <c r="R4" t="n">
-        <v>1143</v>
+        <v>246</v>
       </c>
       <c r="S4" t="n">
-        <v>0.43</v>
+        <v>0.435</v>
       </c>
       <c r="T4" t="n">
-        <v>0.43</v>
+        <v>0.444</v>
       </c>
       <c r="U4" t="n">
-        <v>199</v>
+        <v>21</v>
       </c>
       <c r="V4" t="n">
-        <v>271</v>
+        <v>27</v>
       </c>
       <c r="W4" t="n">
-        <v>0.7340000000000001</v>
-      </c>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
+        <v>0.778</v>
+      </c>
+      <c r="X4" t="n">
+        <v>35</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>83</v>
+      </c>
       <c r="Z4" t="n">
-        <v>552</v>
+        <v>118</v>
       </c>
       <c r="AA4" t="n">
-        <v>309</v>
-      </c>
-      <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="inlineStr"/>
+        <v>105</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>43</v>
+      </c>
       <c r="AE4" t="n">
-        <v>246</v>
+        <v>55</v>
       </c>
       <c r="AF4" t="n">
-        <v>1183</v>
+        <v>277</v>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
@@ -849,7 +903,7 @@
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 90 </t>
+          <t xml:space="preserve"> 108 </t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
@@ -858,7 +912,7 @@
         </is>
       </c>
       <c r="AJ4" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -870,15 +924,15 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1973-74</t>
+          <t>2002-03</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -888,73 +942,83 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>69</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>82</v>
+      </c>
+      <c r="I5" t="n">
+        <v>34</v>
+      </c>
       <c r="J5" t="n">
-        <v>2287</v>
+        <v>2255</v>
       </c>
       <c r="K5" t="n">
-        <v>459</v>
+        <v>316</v>
       </c>
       <c r="L5" t="n">
-        <v>990</v>
+        <v>796</v>
       </c>
       <c r="M5" t="n">
-        <v>0.464</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
+        <v>0.397</v>
+      </c>
+      <c r="N5" t="n">
+        <v>75</v>
+      </c>
+      <c r="O5" t="n">
+        <v>205</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.366</v>
+      </c>
       <c r="Q5" t="n">
-        <v>459</v>
+        <v>241</v>
       </c>
       <c r="R5" t="n">
-        <v>990</v>
+        <v>591</v>
       </c>
       <c r="S5" t="n">
-        <v>0.464</v>
+        <v>0.408</v>
       </c>
       <c r="T5" t="n">
-        <v>0.464</v>
+        <v>0.444</v>
       </c>
       <c r="U5" t="n">
-        <v>212</v>
+        <v>96</v>
       </c>
       <c r="V5" t="n">
-        <v>261</v>
+        <v>124</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8120000000000001</v>
+        <v>0.774</v>
       </c>
       <c r="X5" t="n">
-        <v>160</v>
+        <v>57</v>
       </c>
       <c r="Y5" t="n">
-        <v>355</v>
+        <v>207</v>
       </c>
       <c r="Z5" t="n">
-        <v>515</v>
+        <v>264</v>
       </c>
       <c r="AA5" t="n">
-        <v>284</v>
+        <v>210</v>
       </c>
       <c r="AB5" t="n">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="AC5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AD5" t="inlineStr"/>
+        <v>19</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>108</v>
+      </c>
       <c r="AE5" t="n">
-        <v>221</v>
+        <v>143</v>
       </c>
       <c r="AF5" t="n">
-        <v>1130</v>
+        <v>803</v>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
@@ -963,7 +1027,7 @@
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 90 </t>
+          <t xml:space="preserve"> 108 </t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
@@ -972,7 +1036,7 @@
         </is>
       </c>
       <c r="AJ5" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -984,15 +1048,15 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1974-75</t>
+          <t>2003-04</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1002,73 +1066,83 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="H6" t="n">
+        <v>82</v>
+      </c>
+      <c r="I6" t="n">
+        <v>77</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3331</v>
+      </c>
+      <c r="K6" t="n">
+        <v>555</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1291</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="N6" t="n">
+        <v>83</v>
+      </c>
+      <c r="O6" t="n">
+        <v>272</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>472</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1019</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.463</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.462</v>
+      </c>
+      <c r="U6" t="n">
+        <v>174</v>
+      </c>
+      <c r="V6" t="n">
+        <v>232</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="X6" t="n">
         <v>80</v>
       </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="n">
-        <v>2540</v>
-      </c>
-      <c r="K6" t="n">
-        <v>527</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1082</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.487</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="n">
-        <v>527</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1082</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.487</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0.487</v>
-      </c>
-      <c r="U6" t="n">
-        <v>236</v>
-      </c>
-      <c r="V6" t="n">
-        <v>301</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0.784</v>
-      </c>
-      <c r="X6" t="n">
-        <v>162</v>
-      </c>
       <c r="Y6" t="n">
-        <v>339</v>
+        <v>305</v>
       </c>
       <c r="Z6" t="n">
-        <v>501</v>
+        <v>385</v>
       </c>
       <c r="AA6" t="n">
-        <v>240</v>
+        <v>362</v>
       </c>
       <c r="AB6" t="n">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="AC6" t="n">
-        <v>39</v>
-      </c>
-      <c r="AD6" t="inlineStr"/>
+        <v>26</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>199</v>
+      </c>
       <c r="AE6" t="n">
-        <v>249</v>
+        <v>177</v>
       </c>
       <c r="AF6" t="n">
-        <v>1290</v>
+        <v>1367</v>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
@@ -1077,7 +1151,7 @@
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 90 </t>
+          <t xml:space="preserve"> 108 </t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
@@ -1086,7 +1160,7 @@
         </is>
       </c>
       <c r="AJ6" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1098,15 +1172,15 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1975-76</t>
+          <t>2004-05</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>TOT</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1120,69 +1194,79 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>76</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>82</v>
+      </c>
+      <c r="I7" t="n">
+        <v>82</v>
+      </c>
       <c r="J7" t="n">
-        <v>1697</v>
+        <v>3240</v>
       </c>
       <c r="K7" t="n">
-        <v>316</v>
+        <v>544</v>
       </c>
       <c r="L7" t="n">
-        <v>697</v>
+        <v>1179</v>
       </c>
       <c r="M7" t="n">
-        <v>0.453</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
+        <v>0.461</v>
+      </c>
+      <c r="N7" t="n">
+        <v>177</v>
+      </c>
+      <c r="O7" t="n">
+        <v>370</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.478</v>
+      </c>
       <c r="Q7" t="n">
-        <v>316</v>
+        <v>367</v>
       </c>
       <c r="R7" t="n">
-        <v>697</v>
+        <v>809</v>
       </c>
       <c r="S7" t="n">
-        <v>0.453</v>
+        <v>0.454</v>
       </c>
       <c r="T7" t="n">
-        <v>0.453</v>
+        <v>0.536</v>
       </c>
       <c r="U7" t="n">
+        <v>135</v>
+      </c>
+      <c r="V7" t="n">
+        <v>180</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="X7" t="n">
         <v>120</v>
       </c>
-      <c r="V7" t="n">
-        <v>155</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0.774</v>
-      </c>
-      <c r="X7" t="n">
-        <v>94</v>
-      </c>
       <c r="Y7" t="n">
-        <v>238</v>
+        <v>302</v>
       </c>
       <c r="Z7" t="n">
-        <v>332</v>
+        <v>422</v>
       </c>
       <c r="AA7" t="n">
-        <v>217</v>
+        <v>291</v>
       </c>
       <c r="AB7" t="n">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="AC7" t="n">
-        <v>36</v>
-      </c>
-      <c r="AD7" t="inlineStr"/>
+        <v>24</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>148</v>
+      </c>
       <c r="AE7" t="n">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="AF7" t="n">
-        <v>752</v>
+        <v>1400</v>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
@@ -1191,7 +1275,7 @@
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 90 </t>
+          <t xml:space="preserve"> 108 </t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
@@ -1200,7 +1284,7 @@
         </is>
       </c>
       <c r="AJ7" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1212,15 +1296,15 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1975-76</t>
+          <t>2005-06</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1230,73 +1314,83 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>82</v>
+      </c>
+      <c r="I8" t="n">
+        <v>82</v>
+      </c>
       <c r="J8" t="n">
-        <v>212</v>
+        <v>3340</v>
       </c>
       <c r="K8" t="n">
-        <v>41</v>
+        <v>632</v>
       </c>
       <c r="L8" t="n">
-        <v>88</v>
+        <v>1395</v>
       </c>
       <c r="M8" t="n">
-        <v>0.466</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
+        <v>0.453</v>
+      </c>
+      <c r="N8" t="n">
+        <v>128</v>
+      </c>
+      <c r="O8" t="n">
+        <v>360</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.356</v>
+      </c>
       <c r="Q8" t="n">
-        <v>41</v>
+        <v>504</v>
       </c>
       <c r="R8" t="n">
-        <v>88</v>
+        <v>1035</v>
       </c>
       <c r="S8" t="n">
-        <v>0.466</v>
+        <v>0.487</v>
       </c>
       <c r="T8" t="n">
-        <v>0.466</v>
+        <v>0.499</v>
       </c>
       <c r="U8" t="n">
-        <v>23</v>
+        <v>261</v>
       </c>
       <c r="V8" t="n">
-        <v>27</v>
+        <v>330</v>
       </c>
       <c r="W8" t="n">
-        <v>0.852</v>
+        <v>0.7909999999999999</v>
       </c>
       <c r="X8" t="n">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="Y8" t="n">
-        <v>27</v>
+        <v>237</v>
       </c>
       <c r="Z8" t="n">
-        <v>40</v>
+        <v>335</v>
       </c>
       <c r="AA8" t="n">
-        <v>20</v>
+        <v>536</v>
       </c>
       <c r="AB8" t="n">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="AC8" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD8" t="inlineStr"/>
+        <v>31</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>267</v>
+      </c>
       <c r="AE8" t="n">
-        <v>31</v>
+        <v>187</v>
       </c>
       <c r="AF8" t="n">
-        <v>105</v>
+        <v>1653</v>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
@@ -1305,7 +1399,7 @@
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 90 </t>
+          <t xml:space="preserve"> 108 </t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
@@ -1314,7 +1408,7 @@
         </is>
       </c>
       <c r="AJ8" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1326,15 +1420,15 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1975-76</t>
+          <t>2006-07</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1344,73 +1438,83 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>67</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>57</v>
+      </c>
+      <c r="I9" t="n">
+        <v>57</v>
+      </c>
       <c r="J9" t="n">
-        <v>1485</v>
+        <v>2359</v>
       </c>
       <c r="K9" t="n">
-        <v>275</v>
+        <v>536</v>
       </c>
       <c r="L9" t="n">
-        <v>609</v>
+        <v>1139</v>
       </c>
       <c r="M9" t="n">
-        <v>0.452</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
+        <v>0.471</v>
+      </c>
+      <c r="N9" t="n">
+        <v>119</v>
+      </c>
+      <c r="O9" t="n">
+        <v>312</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.381</v>
+      </c>
       <c r="Q9" t="n">
-        <v>275</v>
+        <v>417</v>
       </c>
       <c r="R9" t="n">
-        <v>609</v>
+        <v>827</v>
       </c>
       <c r="S9" t="n">
-        <v>0.452</v>
+        <v>0.504</v>
       </c>
       <c r="T9" t="n">
-        <v>0.452</v>
+        <v>0.523</v>
       </c>
       <c r="U9" t="n">
-        <v>97</v>
+        <v>235</v>
       </c>
       <c r="V9" t="n">
-        <v>128</v>
+        <v>314</v>
       </c>
       <c r="W9" t="n">
-        <v>0.758</v>
+        <v>0.748</v>
       </c>
       <c r="X9" t="n">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="Y9" t="n">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="Z9" t="n">
-        <v>292</v>
+        <v>239</v>
       </c>
       <c r="AA9" t="n">
-        <v>197</v>
+        <v>249</v>
       </c>
       <c r="AB9" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AC9" t="n">
-        <v>28</v>
-      </c>
-      <c r="AD9" t="inlineStr"/>
+        <v>11</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>176</v>
+      </c>
       <c r="AE9" t="n">
-        <v>163</v>
+        <v>115</v>
       </c>
       <c r="AF9" t="n">
-        <v>647</v>
+        <v>1426</v>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
@@ -1419,7 +1523,7 @@
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 90 </t>
+          <t xml:space="preserve"> 108 </t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
@@ -1428,7 +1532,7 @@
         </is>
       </c>
       <c r="AJ9" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -1440,15 +1544,15 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1976-77</t>
+          <t>2007-08</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1458,73 +1562,83 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>79</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>82</v>
+      </c>
+      <c r="I10" t="n">
+        <v>82</v>
+      </c>
       <c r="J10" t="n">
-        <v>1738</v>
+        <v>3343</v>
       </c>
       <c r="K10" t="n">
-        <v>319</v>
+        <v>647</v>
       </c>
       <c r="L10" t="n">
-        <v>696</v>
+        <v>1497</v>
       </c>
       <c r="M10" t="n">
-        <v>0.458</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
+        <v>0.4320000000000001</v>
+      </c>
+      <c r="N10" t="n">
+        <v>169</v>
+      </c>
+      <c r="O10" t="n">
+        <v>444</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.381</v>
+      </c>
       <c r="Q10" t="n">
-        <v>319</v>
+        <v>478</v>
       </c>
       <c r="R10" t="n">
-        <v>696</v>
+        <v>1053</v>
       </c>
       <c r="S10" t="n">
-        <v>0.458</v>
+        <v>0.454</v>
       </c>
       <c r="T10" t="n">
-        <v>0.458</v>
+        <v>0.489</v>
       </c>
       <c r="U10" t="n">
-        <v>94</v>
+        <v>316</v>
       </c>
       <c r="V10" t="n">
-        <v>132</v>
+        <v>379</v>
       </c>
       <c r="W10" t="n">
-        <v>0.7120000000000001</v>
+        <v>0.8340000000000001</v>
       </c>
       <c r="X10" t="n">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="Y10" t="n">
-        <v>191</v>
+        <v>284</v>
       </c>
       <c r="Z10" t="n">
-        <v>266</v>
+        <v>367</v>
       </c>
       <c r="AA10" t="n">
-        <v>163</v>
+        <v>474</v>
       </c>
       <c r="AB10" t="n">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="AC10" t="n">
-        <v>24</v>
-      </c>
-      <c r="AD10" t="inlineStr"/>
+        <v>18</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>223</v>
+      </c>
       <c r="AE10" t="n">
-        <v>199</v>
+        <v>168</v>
       </c>
       <c r="AF10" t="n">
-        <v>732</v>
+        <v>1779</v>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
@@ -1533,7 +1647,7 @@
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 90 </t>
+          <t xml:space="preserve"> 108 </t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
@@ -1542,7 +1656,7 @@
         </is>
       </c>
       <c r="AJ10" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1554,15 +1668,15 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1977-78</t>
+          <t>2008-09</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>TOT</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1572,75 +1686,83 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>77</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>79</v>
+      </c>
+      <c r="I11" t="n">
+        <v>79</v>
+      </c>
       <c r="J11" t="n">
-        <v>1823</v>
+        <v>3124</v>
       </c>
       <c r="K11" t="n">
-        <v>342</v>
+        <v>620</v>
       </c>
       <c r="L11" t="n">
-        <v>824</v>
+        <v>1420</v>
       </c>
       <c r="M11" t="n">
-        <v>0.415</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
+        <v>0.4370000000000001</v>
+      </c>
+      <c r="N11" t="n">
+        <v>149</v>
+      </c>
+      <c r="O11" t="n">
+        <v>414</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.36</v>
+      </c>
       <c r="Q11" t="n">
-        <v>342</v>
+        <v>471</v>
       </c>
       <c r="R11" t="n">
-        <v>824</v>
+        <v>1006</v>
       </c>
       <c r="S11" t="n">
-        <v>0.415</v>
+        <v>0.468</v>
       </c>
       <c r="T11" t="n">
-        <v>0.415</v>
+        <v>0.489</v>
       </c>
       <c r="U11" t="n">
-        <v>133</v>
+        <v>299</v>
       </c>
       <c r="V11" t="n">
-        <v>177</v>
+        <v>362</v>
       </c>
       <c r="W11" t="n">
-        <v>0.7509999999999999</v>
+        <v>0.826</v>
       </c>
       <c r="X11" t="n">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="Y11" t="n">
-        <v>208</v>
+        <v>281</v>
       </c>
       <c r="Z11" t="n">
-        <v>310</v>
+        <v>346</v>
       </c>
       <c r="AA11" t="n">
-        <v>211</v>
+        <v>455</v>
       </c>
       <c r="AB11" t="n">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="AC11" t="n">
         <v>19</v>
       </c>
       <c r="AD11" t="n">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="AE11" t="n">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="AF11" t="n">
-        <v>817</v>
+        <v>1688</v>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
@@ -1649,7 +1771,7 @@
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 90 </t>
+          <t xml:space="preserve"> 108 </t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
@@ -1658,7 +1780,7 @@
         </is>
       </c>
       <c r="AJ11" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1670,15 +1792,15 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1977-78</t>
+          <t>2009-10</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1688,75 +1810,83 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>76</v>
+      </c>
+      <c r="I12" t="n">
+        <v>76</v>
+      </c>
       <c r="J12" t="n">
-        <v>11</v>
+        <v>2886</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>635</v>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>1386</v>
       </c>
       <c r="M12" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
+        <v>0.458</v>
+      </c>
+      <c r="N12" t="n">
+        <v>129</v>
+      </c>
+      <c r="O12" t="n">
+        <v>350</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.369</v>
+      </c>
       <c r="Q12" t="n">
-        <v>1</v>
+        <v>506</v>
       </c>
       <c r="R12" t="n">
-        <v>4</v>
+        <v>1036</v>
       </c>
       <c r="S12" t="n">
-        <v>0.25</v>
+        <v>0.488</v>
       </c>
       <c r="T12" t="n">
-        <v>0.25</v>
+        <v>0.505</v>
       </c>
       <c r="U12" t="n">
-        <v>2</v>
+        <v>220</v>
       </c>
       <c r="V12" t="n">
-        <v>3</v>
+        <v>269</v>
       </c>
       <c r="W12" t="n">
-        <v>0.667</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="X12" t="n">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="Y12" t="n">
-        <v>1</v>
+        <v>279</v>
       </c>
       <c r="Z12" t="n">
-        <v>3</v>
+        <v>353</v>
       </c>
       <c r="AA12" t="n">
-        <v>1</v>
+        <v>369</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AD12" t="n">
-        <v>3</v>
+        <v>145</v>
       </c>
       <c r="AE12" t="n">
-        <v>3</v>
+        <v>145</v>
       </c>
       <c r="AF12" t="n">
-        <v>4</v>
+        <v>1619</v>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
@@ -1765,7 +1895,7 @@
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 90 </t>
+          <t xml:space="preserve"> 108 </t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
@@ -1774,7 +1904,7 @@
         </is>
       </c>
       <c r="AJ12" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -1786,15 +1916,15 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1977-78</t>
+          <t>2010-11</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>SEA</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1804,75 +1934,83 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>76</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>72</v>
+      </c>
+      <c r="I13" t="n">
+        <v>72</v>
+      </c>
       <c r="J13" t="n">
-        <v>1812</v>
+        <v>2554</v>
       </c>
       <c r="K13" t="n">
-        <v>341</v>
+        <v>514</v>
       </c>
       <c r="L13" t="n">
-        <v>820</v>
+        <v>1161</v>
       </c>
       <c r="M13" t="n">
-        <v>0.416</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
+        <v>0.4429999999999999</v>
+      </c>
+      <c r="N13" t="n">
+        <v>89</v>
+      </c>
+      <c r="O13" t="n">
+        <v>300</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.297</v>
+      </c>
       <c r="Q13" t="n">
-        <v>341</v>
+        <v>425</v>
       </c>
       <c r="R13" t="n">
-        <v>820</v>
+        <v>861</v>
       </c>
       <c r="S13" t="n">
-        <v>0.416</v>
+        <v>0.494</v>
       </c>
       <c r="T13" t="n">
-        <v>0.416</v>
+        <v>0.481</v>
       </c>
       <c r="U13" t="n">
+        <v>195</v>
+      </c>
+      <c r="V13" t="n">
+        <v>243</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.802</v>
+      </c>
+      <c r="X13" t="n">
+        <v>59</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>232</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>291</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>338</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>47</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>146</v>
+      </c>
+      <c r="AE13" t="n">
         <v>131</v>
       </c>
-      <c r="V13" t="n">
-        <v>174</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0.753</v>
-      </c>
-      <c r="X13" t="n">
-        <v>100</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>207</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>307</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>210</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>43</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>166</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>194</v>
-      </c>
       <c r="AF13" t="n">
-        <v>813</v>
+        <v>1312</v>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
@@ -1881,7 +2019,7 @@
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 90 </t>
+          <t xml:space="preserve"> 108 </t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
@@ -1890,7 +2028,7 @@
         </is>
       </c>
       <c r="AJ13" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1902,15 +2040,15 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1978-79</t>
+          <t>2011-12</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>SEA</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1920,75 +2058,83 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>82</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>60</v>
+      </c>
+      <c r="I14" t="n">
+        <v>60</v>
+      </c>
       <c r="J14" t="n">
-        <v>2386</v>
+        <v>2127</v>
       </c>
       <c r="K14" t="n">
-        <v>356</v>
+        <v>423</v>
       </c>
       <c r="L14" t="n">
-        <v>821</v>
+        <v>931</v>
       </c>
       <c r="M14" t="n">
-        <v>0.434</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
+        <v>0.454</v>
+      </c>
+      <c r="N14" t="n">
+        <v>125</v>
+      </c>
+      <c r="O14" t="n">
+        <v>322</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.388</v>
+      </c>
       <c r="Q14" t="n">
-        <v>356</v>
+        <v>298</v>
       </c>
       <c r="R14" t="n">
-        <v>821</v>
+        <v>609</v>
       </c>
       <c r="S14" t="n">
-        <v>0.434</v>
+        <v>0.489</v>
       </c>
       <c r="T14" t="n">
-        <v>0.434</v>
+        <v>0.521</v>
       </c>
       <c r="U14" t="n">
-        <v>190</v>
+        <v>158</v>
       </c>
       <c r="V14" t="n">
-        <v>250</v>
+        <v>186</v>
       </c>
       <c r="W14" t="n">
-        <v>0.76</v>
+        <v>0.8490000000000001</v>
       </c>
       <c r="X14" t="n">
-        <v>127</v>
+        <v>53</v>
       </c>
       <c r="Y14" t="n">
-        <v>285</v>
+        <v>168</v>
       </c>
       <c r="Z14" t="n">
-        <v>412</v>
+        <v>221</v>
       </c>
       <c r="AA14" t="n">
-        <v>358</v>
+        <v>232</v>
       </c>
       <c r="AB14" t="n">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="AC14" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="AD14" t="n">
-        <v>254</v>
+        <v>116</v>
       </c>
       <c r="AE14" t="n">
-        <v>245</v>
+        <v>75</v>
       </c>
       <c r="AF14" t="n">
-        <v>902</v>
+        <v>1129</v>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
@@ -1997,7 +2143,7 @@
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 90 </t>
+          <t xml:space="preserve"> 108 </t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
@@ -2006,7 +2152,7 @@
         </is>
       </c>
       <c r="AJ14" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -2018,15 +2164,15 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1979-80</t>
+          <t>2012-13</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>SEA</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -2036,79 +2182,83 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>81</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>72</v>
+      </c>
+      <c r="I15" t="n">
+        <v>72</v>
+      </c>
       <c r="J15" t="n">
-        <v>2533</v>
+        <v>2642</v>
       </c>
       <c r="K15" t="n">
-        <v>377</v>
+        <v>445</v>
       </c>
       <c r="L15" t="n">
-        <v>772</v>
+        <v>1052</v>
       </c>
       <c r="M15" t="n">
-        <v>0.488</v>
+        <v>0.423</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="inlineStr"/>
+        <v>395</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.375</v>
+      </c>
       <c r="Q15" t="n">
-        <v>377</v>
+        <v>297</v>
       </c>
       <c r="R15" t="n">
-        <v>772</v>
+        <v>657</v>
       </c>
       <c r="S15" t="n">
-        <v>0.488</v>
+        <v>0.452</v>
       </c>
       <c r="T15" t="n">
-        <v>0.488</v>
+        <v>0.493</v>
       </c>
       <c r="U15" t="n">
+        <v>132</v>
+      </c>
+      <c r="V15" t="n">
         <v>161</v>
       </c>
-      <c r="V15" t="n">
-        <v>201</v>
-      </c>
       <c r="W15" t="n">
-        <v>0.8009999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="X15" t="n">
-        <v>163</v>
+        <v>53</v>
       </c>
       <c r="Y15" t="n">
-        <v>263</v>
+        <v>165</v>
       </c>
       <c r="Z15" t="n">
-        <v>426</v>
+        <v>218</v>
       </c>
       <c r="AA15" t="n">
-        <v>424</v>
+        <v>253</v>
       </c>
       <c r="AB15" t="n">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="AC15" t="n">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="AD15" t="n">
-        <v>247</v>
+        <v>123</v>
       </c>
       <c r="AE15" t="n">
-        <v>213</v>
+        <v>99</v>
       </c>
       <c r="AF15" t="n">
-        <v>915</v>
+        <v>1170</v>
       </c>
       <c r="AG15" t="inlineStr">
         <is>
@@ -2117,7 +2267,7 @@
       </c>
       <c r="AH15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 90 </t>
+          <t xml:space="preserve"> 108 </t>
         </is>
       </c>
       <c r="AI15" t="inlineStr">
@@ -2126,7 +2276,7 @@
         </is>
       </c>
       <c r="AJ15" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -2138,15 +2288,15 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1980-81</t>
+          <t>2013-14</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>SEA</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -2156,81 +2306,83 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>80</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>79</v>
+      </c>
+      <c r="I16" t="n">
+        <v>79</v>
+      </c>
       <c r="J16" t="n">
-        <v>2324</v>
+        <v>2575</v>
       </c>
       <c r="K16" t="n">
-        <v>373</v>
+        <v>462</v>
       </c>
       <c r="L16" t="n">
-        <v>866</v>
+        <v>1018</v>
       </c>
       <c r="M16" t="n">
-        <v>0.431</v>
+        <v>0.454</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>404</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>0.401</v>
       </c>
       <c r="Q16" t="n">
-        <v>373</v>
+        <v>300</v>
       </c>
       <c r="R16" t="n">
-        <v>865</v>
+        <v>614</v>
       </c>
       <c r="S16" t="n">
-        <v>0.431</v>
+        <v>0.489</v>
       </c>
       <c r="T16" t="n">
-        <v>0.431</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="U16" t="n">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="V16" t="n">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="W16" t="n">
-        <v>0.8079999999999999</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="X16" t="n">
-        <v>135</v>
+        <v>48</v>
       </c>
       <c r="Y16" t="n">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="Z16" t="n">
-        <v>362</v>
+        <v>270</v>
       </c>
       <c r="AA16" t="n">
-        <v>312</v>
+        <v>216</v>
       </c>
       <c r="AB16" t="n">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="AC16" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AD16" t="n">
-        <v>230</v>
+        <v>120</v>
       </c>
       <c r="AE16" t="n">
-        <v>202</v>
+        <v>129</v>
       </c>
       <c r="AF16" t="n">
-        <v>919</v>
+        <v>1245</v>
       </c>
       <c r="AG16" t="inlineStr">
         <is>
@@ -2239,7 +2391,7 @@
       </c>
       <c r="AH16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 90 </t>
+          <t xml:space="preserve"> 108 </t>
         </is>
       </c>
       <c r="AI16" t="inlineStr">
@@ -2248,7 +2400,7 @@
         </is>
       </c>
       <c r="AJ16" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -2260,15 +2412,15 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1981-82</t>
+          <t>2014-15</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>SEA</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -2278,81 +2430,83 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="H17" t="n">
+        <v>80</v>
+      </c>
+      <c r="I17" t="n">
+        <v>80</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2791</v>
+      </c>
+      <c r="K17" t="n">
+        <v>446</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1025</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="N17" t="n">
+        <v>121</v>
+      </c>
+      <c r="O17" t="n">
+        <v>337</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.359</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>325</v>
+      </c>
+      <c r="R17" t="n">
+        <v>688</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.472</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.494</v>
+      </c>
+      <c r="U17" t="n">
+        <v>141</v>
+      </c>
+      <c r="V17" t="n">
+        <v>176</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.8009999999999999</v>
+      </c>
+      <c r="X17" t="n">
+        <v>53</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>331</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>384</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>292</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>59</v>
+      </c>
+      <c r="AC17" t="n">
         <v>14</v>
       </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="n">
-        <v>187</v>
-      </c>
-      <c r="K17" t="n">
-        <v>22</v>
-      </c>
-      <c r="L17" t="n">
-        <v>45</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.489</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="n">
-        <v>22</v>
-      </c>
-      <c r="R17" t="n">
-        <v>45</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0.489</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0.489</v>
-      </c>
-      <c r="U17" t="n">
-        <v>15</v>
-      </c>
-      <c r="V17" t="n">
-        <v>20</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="X17" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>18</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>4</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>3</v>
-      </c>
       <c r="AD17" t="n">
-        <v>17</v>
+        <v>137</v>
       </c>
       <c r="AE17" t="n">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="AF17" t="n">
-        <v>59</v>
+        <v>1154</v>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
@@ -2361,7 +2515,7 @@
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 90 </t>
+          <t xml:space="preserve"> 108 </t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
@@ -2370,7 +2524,7 @@
         </is>
       </c>
       <c r="AJ17" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -2382,113 +2536,981 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>2015-16</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>34</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>TOT</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>81</v>
+      </c>
+      <c r="I18" t="n">
+        <v>81</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2703</v>
+      </c>
+      <c r="K18" t="n">
+        <v>377</v>
+      </c>
+      <c r="L18" t="n">
+        <v>859</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.439</v>
+      </c>
+      <c r="N18" t="n">
+        <v>120</v>
+      </c>
+      <c r="O18" t="n">
+        <v>313</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.383</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>257</v>
+      </c>
+      <c r="R18" t="n">
+        <v>546</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.471</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.509</v>
+      </c>
+      <c r="U18" t="n">
+        <v>118</v>
+      </c>
+      <c r="V18" t="n">
+        <v>142</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.831</v>
+      </c>
+      <c r="X18" t="n">
+        <v>49</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>243</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>292</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>318</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>61</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>159</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>146</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>992</v>
+      </c>
+      <c r="AG18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 201</t>
+        </is>
+      </c>
+      <c r="AH18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 108 </t>
+        </is>
+      </c>
+      <c r="AI18" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2015-16</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>34</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>BRK</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>57</v>
+      </c>
+      <c r="I19" t="n">
+        <v>57</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1934</v>
+      </c>
+      <c r="K19" t="n">
+        <v>247</v>
+      </c>
+      <c r="L19" t="n">
+        <v>608</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="N19" t="n">
+        <v>85</v>
+      </c>
+      <c r="O19" t="n">
+        <v>229</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.371</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>162</v>
+      </c>
+      <c r="R19" t="n">
+        <v>379</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.427</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.476</v>
+      </c>
+      <c r="U19" t="n">
+        <v>92</v>
+      </c>
+      <c r="V19" t="n">
+        <v>108</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.852</v>
+      </c>
+      <c r="X19" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>190</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>224</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>232</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>116</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>100</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>671</v>
+      </c>
+      <c r="AG19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 201</t>
+        </is>
+      </c>
+      <c r="AH19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 108 </t>
+        </is>
+      </c>
+      <c r="AI19" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2015-16</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>34</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>MIA</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>24</v>
+      </c>
+      <c r="I20" t="n">
+        <v>24</v>
+      </c>
+      <c r="J20" t="n">
+        <v>769</v>
+      </c>
+      <c r="K20" t="n">
+        <v>130</v>
+      </c>
+      <c r="L20" t="n">
+        <v>251</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.518</v>
+      </c>
+      <c r="N20" t="n">
+        <v>35</v>
+      </c>
+      <c r="O20" t="n">
+        <v>84</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>95</v>
+      </c>
+      <c r="R20" t="n">
+        <v>167</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.569</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.588</v>
+      </c>
+      <c r="U20" t="n">
+        <v>26</v>
+      </c>
+      <c r="V20" t="n">
+        <v>34</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="X20" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>53</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>68</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>86</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>43</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>321</v>
+      </c>
+      <c r="AG20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 201</t>
+        </is>
+      </c>
+      <c r="AH20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 108 </t>
+        </is>
+      </c>
+      <c r="AI20" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2016-17</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>35</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>78</v>
+      </c>
+      <c r="I21" t="n">
+        <v>14</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1843</v>
+      </c>
+      <c r="K21" t="n">
+        <v>273</v>
+      </c>
+      <c r="L21" t="n">
+        <v>626</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.436</v>
+      </c>
+      <c r="N21" t="n">
+        <v>106</v>
+      </c>
+      <c r="O21" t="n">
+        <v>258</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>167</v>
+      </c>
+      <c r="R21" t="n">
+        <v>368</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.454</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.521</v>
+      </c>
+      <c r="U21" t="n">
+        <v>63</v>
+      </c>
+      <c r="V21" t="n">
+        <v>77</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="X21" t="n">
+        <v>33</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>210</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>243</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>144</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>36</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>18</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>69</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>93</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>715</v>
+      </c>
+      <c r="AG21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 201</t>
+        </is>
+      </c>
+      <c r="AH21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 108 </t>
+        </is>
+      </c>
+      <c r="AI21" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2017-18</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>36</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>TOT</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>55</v>
+      </c>
+      <c r="I22" t="n">
+        <v>4</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1205</v>
+      </c>
+      <c r="K22" t="n">
+        <v>146</v>
+      </c>
+      <c r="L22" t="n">
+        <v>360</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="N22" t="n">
+        <v>40</v>
+      </c>
+      <c r="O22" t="n">
+        <v>145</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.276</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>106</v>
+      </c>
+      <c r="R22" t="n">
+        <v>215</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.493</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.461</v>
+      </c>
+      <c r="U22" t="n">
+        <v>40</v>
+      </c>
+      <c r="V22" t="n">
+        <v>45</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.889</v>
+      </c>
+      <c r="X22" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>158</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>172</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>83</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>49</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>67</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>372</v>
+      </c>
+      <c r="AG22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 201</t>
+        </is>
+      </c>
+      <c r="AH22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 108 </t>
+        </is>
+      </c>
+      <c r="AI22" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2017-18</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>36</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>32</v>
+      </c>
+      <c r="I23" t="n">
+        <v>3</v>
+      </c>
+      <c r="J23" t="n">
+        <v>700</v>
+      </c>
+      <c r="K23" t="n">
+        <v>95</v>
+      </c>
+      <c r="L23" t="n">
+        <v>226</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="N23" t="n">
+        <v>23</v>
+      </c>
+      <c r="O23" t="n">
+        <v>84</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.274</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>72</v>
+      </c>
+      <c r="R23" t="n">
+        <v>142</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.507</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0.471</v>
+      </c>
+      <c r="U23" t="n">
+        <v>20</v>
+      </c>
+      <c r="V23" t="n">
+        <v>24</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0.833</v>
+      </c>
+      <c r="X23" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>95</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>107</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>45</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>31</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>233</v>
+      </c>
+      <c r="AG23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 201</t>
+        </is>
+      </c>
+      <c r="AH23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 108 </t>
+        </is>
+      </c>
+      <c r="AI23" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2017-18</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>36</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>23</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>505</v>
+      </c>
+      <c r="K24" t="n">
+        <v>51</v>
+      </c>
+      <c r="L24" t="n">
+        <v>134</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.381</v>
+      </c>
+      <c r="N24" t="n">
+        <v>17</v>
+      </c>
+      <c r="O24" t="n">
+        <v>61</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.279</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>34</v>
+      </c>
+      <c r="R24" t="n">
+        <v>73</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.466</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="U24" t="n">
+        <v>20</v>
+      </c>
+      <c r="V24" t="n">
+        <v>21</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0.9520000000000001</v>
+      </c>
+      <c r="X24" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>63</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>65</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>35</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>139</v>
+      </c>
+      <c r="AG24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 201</t>
+        </is>
+      </c>
+      <c r="AH24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 108 </t>
+        </is>
+      </c>
+      <c r="AI24" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
           <t>Career</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
         <is>
           <t>NBA</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>869</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>25681</v>
-      </c>
-      <c r="K18" t="n">
-        <v>4575</v>
-      </c>
-      <c r="L18" t="n">
-        <v>10254</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.446</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>4575</v>
-      </c>
-      <c r="R18" t="n">
-        <v>10253</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0.446</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0.446</v>
-      </c>
-      <c r="U18" t="n">
-        <v>2050</v>
-      </c>
-      <c r="V18" t="n">
-        <v>2633</v>
-      </c>
-      <c r="W18" t="n">
-        <v>0.779</v>
-      </c>
-      <c r="X18" t="n">
-        <v>1021</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>2121</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>4778</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>3285</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>487</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>235</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>917</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>2505</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>11200</v>
-      </c>
-      <c r="AG18" t="inlineStr">
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1276</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1091</v>
+      </c>
+      <c r="J25" t="n">
+        <v>44234</v>
+      </c>
+      <c r="K25" t="n">
+        <v>7822</v>
+      </c>
+      <c r="L25" t="n">
+        <v>17719</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.441</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1978</v>
+      </c>
+      <c r="O25" t="n">
+        <v>5331</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.371</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5844</v>
+      </c>
+      <c r="R25" t="n">
+        <v>12388</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.472</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.4970000000000001</v>
+      </c>
+      <c r="U25" t="n">
+        <v>2783</v>
+      </c>
+      <c r="V25" t="n">
+        <v>3468</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.802</v>
+      </c>
+      <c r="X25" t="n">
+        <v>1067</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>3992</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>5059</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>5001</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>1071</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>260</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>2451</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>2252</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>20405</v>
+      </c>
+      <c r="AG25" t="inlineStr">
         <is>
           <t xml:space="preserve"> 201</t>
         </is>
       </c>
-      <c r="AH18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 90 </t>
-        </is>
-      </c>
-      <c r="AI18" t="inlineStr">
+      <c r="AH25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 108 </t>
+        </is>
+      </c>
+      <c r="AI25" t="inlineStr">
         <is>
           <t>Right</t>
         </is>
       </c>
-      <c r="AJ18" t="n">
-        <v>7</v>
+      <c r="AJ25" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
